--- a/ControlCambios/09_Cierre/Cierre011.xlsx
+++ b/ControlCambios/09_Cierre/Cierre011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Fecha:</t>
-  </si>
-  <si>
-    <t>14/3/2024</t>
   </si>
   <si>
     <t>ID Documento base:</t>
@@ -117,19 +114,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -611,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -622,58 +613,67 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
@@ -682,181 +682,169 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="16" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1176,20 +1164,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="85" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="82" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="82" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="82" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="84" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1202,7 +1190,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1215,7 +1203,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1244,8 +1232,8 @@
       <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>3</v>
+      <c r="J4" s="8">
+        <v>45365</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -1254,13 +1242,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -1284,350 +1272,350 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="31"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="30"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="D13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="24"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="24"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="24"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="24"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="24"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="24"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="24"/>
+      <c r="D22" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="24"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="24"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="24"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="24"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="24"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="82"/>
+      <c r="K30" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="24">
